--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\module3\Baitap_module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3!$A$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
   <si>
     <t>Stt bài</t>
   </si>
@@ -428,35 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve">where </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"=  , &gt; , &lt; , &gt;= , &lt;=, !="
-example: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SELECT * FROM Products
-WHERE Price &gt; 30; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*có thể thay thế toán tử " = " bằng các toán tử khác</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1068,12 +1039,272 @@
 ON table1.column_name = table2.column_name
 WHERE condition;</t>
   </si>
+  <si>
+    <t xml:space="preserve">JOIN nameTable ON:  dựa trên 1 condition </t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dđại diện cho 1 </t>
+  </si>
+  <si>
+    <t>entityName AS nameTemp</t>
+  </si>
+  <si>
+    <t>SUM()</t>
+  </si>
+  <si>
+    <t>tính tổng giá trị của 1 cột chứa giá trị số</t>
+  </si>
+  <si>
+    <t>AVG()</t>
+  </si>
+  <si>
+    <t>tính trung bình của 1 cột chứa giá trị số</t>
+  </si>
+  <si>
+    <t>SELECT AVG(column_name )
+FROM table_name
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>SELECT SUM(column_name)
+FROM TABLE_NAME
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>COUNT()</t>
+  </si>
+  <si>
+    <t>sử dụng để đếm số bản ghi</t>
+  </si>
+  <si>
+    <t>SELECT COUNT (column_name)
+FROM table_name
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>MAX()</t>
+  </si>
+  <si>
+    <t>trả về giá trị lớn nhất của một cột</t>
+  </si>
+  <si>
+    <t>SELECT MAX(column_name)
+FROM table_name
+WHERE condition</t>
+  </si>
+  <si>
+    <t>MIN()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả về giá trị nhỏ nhất của một cột </t>
+  </si>
+  <si>
+    <t>SELECT MIN(column_name)
+FROM table_name
+WHERE condition</t>
+  </si>
+  <si>
+    <t>UCASE()</t>
+  </si>
+  <si>
+    <t>sử dụng để chuyển một chuỗi thành 
+chữ viết hoa(uppercase)</t>
+  </si>
+  <si>
+    <t>SELECT UCASE() 
+FROM table_name;</t>
+  </si>
+  <si>
+    <t>LCASSE()</t>
+  </si>
+  <si>
+    <t>SELECT LCASE(column_name)
+FORM table_name</t>
+  </si>
+  <si>
+    <t>LEN()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả về độ dài của 1 chuỗi </t>
+  </si>
+  <si>
+    <t>SELECT LEN(column_name) FROM table_name;</t>
+  </si>
+  <si>
+    <t>NOW()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả về ngày giờ của hệ thống </t>
+  </si>
+  <si>
+    <t>SELECT NOW (column_name) FROM table_name;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"=  , &gt; , &lt; , &gt;= , &lt;=, !="
+example: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products
+WHERE Price = 30; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*có thể thay thế toán tử " = " bằng các toán tử khác</t>
+    </r>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>giới hạn bản ghi</t>
+  </si>
+  <si>
+    <t>limit ( number);</t>
+  </si>
+  <si>
+    <t>CREATE VIEW</t>
+  </si>
+  <si>
+    <t>tạo 1 view</t>
+  </si>
+  <si>
+    <t>CREATE VIEW view_name AS
+SELECT column1, column2.....
+FROM table_name
+WHERE [condition];</t>
+  </si>
+  <si>
+    <t>Để tạo view, người dùng phải có đặc quyền hệ thống phù hợp theo cách
+ triển khai cụ thể.</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>tự động tăng 1 số  vào trường đã gắn 
+thao tác. Khi mà thêm vào 1 bản ghi mới</t>
+  </si>
+  <si>
+    <t>name_thuocTinh KieuDuLieu AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>WITH CHECK OPTION</t>
+  </si>
+  <si>
+    <t>đảm bảo rằng tất cả các UPDATE 
+và INSERT đều đáp ứng (các)
+ điều kiện trong định nghĩa view.</t>
+  </si>
+  <si>
+    <t>lấy ra bản ghi của trường. (các bản ghi 
+không trung lặp nhau)</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT column1, column2, ...
+FROM table_name</t>
+  </si>
+  <si>
+    <t>câu lệnh update dùng để sửa đổi bản
+ghi trong bảng</t>
+  </si>
+  <si>
+    <t>UPDATE table_name
+SET column1 = value1, column2 = value2, ...
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>tạo index trên 1 bảng</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX index_name
+ON table_name;</t>
+  </si>
+  <si>
+    <t>tạo index cho cột chỉ rõ trong bảng</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX index_name
+ON table_name(column 1, column 2,...);</t>
+  </si>
+  <si>
+    <t>thêm index mang tính duy nhất và 
+không thể  null .</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_name ADD PRIMARY KEY (olumn 1, column 2,..)</t>
+  </si>
+  <si>
+    <t>thêm index mang tính duy nhất nhưng 
+có thể null</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_name ADD UNIQUE index_name (column 1, column 2,..)</t>
+  </si>
+  <si>
+    <t>thêm index có thể trung lăp</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_name ADD INDEX index_name (column 1, column 2,..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thêm index đặc biệt </t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_name ADD FULLTEXT 
+index_name (column 1, column 2,..)</t>
+  </si>
+  <si>
+    <t>xóa index</t>
+  </si>
+  <si>
+    <t>DROP INDEX index_name;</t>
+  </si>
+  <si>
+    <t>DELEMITER</t>
+  </si>
+  <si>
+    <t>THỦ TỤC LƯU TRỮ</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+create procedure sp_ChechValue(IN value1 int,OUT value2 int)
+   begin
+   set value2=(select Amount from SumOfAll where Amount=value1);
+   end;
+   //
+delimiter ;</t>
+  </si>
+  <si>
+    <t>ĐỂ LƯU TRỮ CẤU TRÚC LỆNH TRUY XUẤT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1401,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF526069"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1204,7 +1447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1244,6 +1487,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,13 +1522,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1644,10 +1897,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1658,15 +1911,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1675,10 +1928,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1692,8 +1945,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1705,8 +1958,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1718,9 +1971,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1728,18 +1981,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1753,8 +2006,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +2019,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1779,8 +2032,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1789,8 +2042,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1802,13 +2055,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1816,17 +2069,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1835,16 +2088,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1856,10 +2109,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1878,8 +2131,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1889,8 +2142,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1920,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +2211,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -1975,7 +2228,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -1990,7 +2243,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2258,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -2065,70 +2318,70 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="8" t="s">
+    <row r="11" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="10" t="s">
+    <row r="12" spans="1:6" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="10" t="s">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="8" t="s">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="8" t="s">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="8" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -2136,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2150,13 +2403,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2164,13 +2417,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2178,13 +2431,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2192,16 +2445,16 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2209,16 +2462,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="360" x14ac:dyDescent="0.25">
@@ -2226,16 +2479,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="270" x14ac:dyDescent="0.25">
@@ -2243,13 +2496,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2257,16 +2510,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -2274,16 +2527,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
         <v>125</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2291,77 +2544,406 @@
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
+      <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="11" t="s">
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="D30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>143</v>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>30</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>31</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>32</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24"/>
-  <mergeCells count="6">
-    <mergeCell ref="B27:B30"/>
+  <autoFilter ref="A1:F41"/>
+  <mergeCells count="10">
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BV LAPTOP\Desktop\moudule3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -1522,13 +1522,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2175,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2211,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -2228,7 +2228,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="C9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2332,54 +2332,54 @@
       <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="8" t="s">
         <v>91</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="A47" s="26">
         <v>31</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="26" t="s">
         <v>190</v>
       </c>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="26"/>
       <c r="D48" t="s">
         <v>193</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="26"/>
       <c r="D49" s="8" t="s">
         <v>195</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="26"/>
       <c r="D50" s="8" t="s">
         <v>197</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="26"/>
       <c r="D51" t="s">
         <v>199</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="26"/>
       <c r="D52" t="s">
         <v>201</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="26"/>
       <c r="D53" t="s">
         <v>203</v>
@@ -2934,16 +2934,16 @@
   </sheetData>
   <autoFilter ref="A1:F41"/>
   <mergeCells count="10">
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
   <si>
     <t>Stt bài</t>
   </si>
@@ -1537,6 +1537,175 @@
   </si>
   <si>
     <t>hình nên ko lặp lại</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>tạo viền cho box</t>
+  </si>
+  <si>
+    <t>border : solid 5px</t>
+  </si>
+  <si>
+    <t>tạo padding</t>
+  </si>
+  <si>
+    <t>padding : 10px;</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>tạo khoảng cách giữa đường viền với 
+các mục bên ngoài</t>
+  </si>
+  <si>
+    <t>margin :20px;</t>
+  </si>
+  <si>
+    <t>có thể khai báo chung cho cả 4 giá trị padding hoặc margin theo 
+thứ tự (trên, phải, dưới, trái )
+Example: padding : 10px 20px 30px 40px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border - radius </t>
+  </si>
+  <si>
+    <t>bo góc  cho box</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>border - radius: 30px</t>
+  </si>
+  <si>
+    <t>THUỘC TÍNH POSITION</t>
+  </si>
+  <si>
+    <t>quy định cách thức sắp đặt các vị trí cho 1 thành phần trong 1 trang web</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>giá trị mặc định: thành phần này đc sắp xếp đúng theo vị trí tự nhiên của nó</t>
+  </si>
+  <si>
+    <t>đc định vị so với vị trí mặc định của bản thân nó</t>
+  </si>
+  <si>
+    <t>div{
+position: relative;
+left: 100px;
+top: 150px;
+} // chỉ khi có relative thỳ left và top mới đc thay đổi.</t>
+  </si>
+  <si>
+    <t>div.parent {
+position : relative;
+}
+div.child {
+position :absolute;
+left : 150px;
+top : 100px;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">định vị 1 thành phần so với thành phần cha gần nhất của nó 
+( thành phần cha phải có thuộc tính position khác static) 
+( ví dụ : 1 div cha chứa 1 div con)
+thường được sử dụng để </t>
+  </si>
+  <si>
+    <t>div{
+position : fixed;
+top: 10px;
+left : 20px;
+}</t>
+  </si>
+  <si>
+    <t>định vị so với trình duyệt
+thường sử dụng làm tiêu đề</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bố cục cơ bản của trang web </t>
+  </si>
+  <si>
+    <t>thuộc tính float</t>
+  </si>
+  <si>
+    <t>kéo block sát về bên (trái hoặc phải)</t>
+  </si>
+  <si>
+    <t>thuộc tính clear</t>
+  </si>
+  <si>
+    <t>float : left ( right);</t>
+  </si>
+  <si>
+    <t>clear : both;</t>
+  </si>
+  <si>
+    <t>ko cho phép các thẻ float khác xuất hiện 2 bên footer</t>
+  </si>
+  <si>
+    <t>media queries</t>
+  </si>
+  <si>
+    <t>áp dụng khi 1 khối css thỏa mãn 1 điều kiện nào đó</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION GetCustomerName(customerNumber INT)
+RETURNS VARCHAR(20)
+READS SQL DATA
+BEGIN
+    DECLARE customerName VARCHAR(20);
+    IF customerNumber = 1 THEN
+  SET customerName = 'Customer Name 1';
+    ELSEIF customerNumber = 2 THEN
+        SET customerName = 'Customer Name 2';
+    ELSEIF customerNumber = 3 THEN
+     SET customerName = 'Customer Name 3';
+    END IF;
+ RETURN (customerName);
+END$$</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>function  &amp; procedure</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE GetAllCustomer(IN id int)
+BEGIN
+ SELECT *  FROM customers where customerNumber = id;
+END //
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER tên_trigger ON tên_bảng
+FOR {DELETE, INSERT, UPDATE}
+AS 
+  câu_lệnh_sql</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1828,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,6 +1844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1760,6 +1935,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,11 +1978,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1871,33 +2056,38 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>571499</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>255975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4067175</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>28971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-4116" t="1678" r="4116" b="-1678"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="4476749"/>
-          <a:ext cx="9600000" cy="2933700"/>
+          <a:off x="7848600" y="4524375"/>
+          <a:ext cx="3933825" cy="2838846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2209,10 +2399,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2223,15 +2413,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2240,10 +2430,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2257,8 +2447,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2270,8 +2460,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2283,9 +2473,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2293,18 +2483,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2318,8 +2508,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2331,8 +2521,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2344,8 +2534,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2354,8 +2544,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2367,13 +2557,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2381,17 +2571,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2400,16 +2590,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -2421,10 +2611,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2443,8 +2633,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2454,8 +2644,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2486,10 +2676,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,22 +2691,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2524,7 +2714,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -2541,7 +2731,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -2556,7 +2746,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="32"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -2571,7 +2761,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="32"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -2631,10 +2821,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2642,62 +2832,62 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2870,7 +3060,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2882,12 +3072,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -2897,10 +3087,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -2910,10 +3100,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -2923,7 +3113,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3157,12 +3347,12 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
         <v>31</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="28" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="32" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3173,9 +3363,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="32"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3184,9 +3374,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3195,9 +3385,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3206,9 +3396,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="32"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -3217,9 +3407,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="32"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -3228,9 +3418,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="32"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -3343,15 +3533,36 @@
         <v>225</v>
       </c>
     </row>
+    <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="C63" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C64" s="31"/>
+      <c r="D64" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F55">
     <filterColumn colId="2">
       <filters>
-        <filter val="INSERT  INTO"/>
+        <filter val="INDEX"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
@@ -3370,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,22 +3597,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3557,88 +3768,88 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
         <v>270</v>
       </c>
@@ -3646,7 +3857,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
         <v>272</v>
       </c>
@@ -3654,7 +3865,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>275</v>
       </c>
@@ -3665,7 +3876,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>278</v>
       </c>
@@ -3673,9 +3884,161 @@
         <v>277</v>
       </c>
     </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="C39" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="C40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B42" s="31"/>
+      <c r="C42" s="33"/>
+      <c r="D42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="33"/>
+      <c r="D43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="33"/>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
-  <mergeCells count="3">
+  <autoFilter ref="A1:F39"/>
+  <mergeCells count="7">
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="C17:C32"/>
     <mergeCell ref="D17:D32"/>
     <mergeCell ref="E17:E32"/>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
     <sheet name="module3_SQL" sheetId="2" r:id="rId2"/>
     <sheet name="module3_css" sheetId="3" r:id="rId3"/>
+    <sheet name="bootstrap" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="337">
   <si>
     <t>Stt bài</t>
   </si>
@@ -1706,6 +1708,56 @@
 FOR {DELETE, INSERT, UPDATE}
 AS 
   câu_lệnh_sql</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>tạo ra bố cục web đc lùi vào 2 bên
+và phải khoảng bằng nhau</t>
+  </si>
+  <si>
+    <t>style = class"container"</t>
+  </si>
+  <si>
+    <t>grid-view class</t>
+  </si>
+  <si>
+    <t>.col</t>
+  </si>
+  <si>
+    <t>.col-xm-</t>
+  </si>
+  <si>
+    <t>.col-md-</t>
+  </si>
+  <si>
+    <t>.col-lg-</t>
+  </si>
+  <si>
+    <t>.col-xl-</t>
+  </si>
+  <si>
+    <t>less than 576px</t>
+  </si>
+  <si>
+    <t>equal or greate 576px</t>
+  </si>
+  <si>
+    <t>equal or greate 768px</t>
+  </si>
+  <si>
+    <t>nt  992px</t>
+  </si>
+  <si>
+    <t>nt 1200px</t>
+  </si>
+  <si>
+    <t>linkBootstrap</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="https://maxcdn.bootstrapcdn.com/bootstrap/4.0.0/css/bootstrap.min.css"
+          integrity="sha384-Gn5384xqQ1aoWXA+058RXPxPg6fy4IWvTNh0E263XmFcJlSAwiGgFAW/dAiS6JXm" crossorigin="anonymous"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1880,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1850,6 +1902,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,7 +1940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1973,16 +2031,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2824,7 +2886,7 @@
       <c r="C9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2835,54 +2897,54 @@
       <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3351,7 +3413,7 @@
       <c r="A48" s="31">
         <v>31</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="32" t="s">
         <v>190</v>
       </c>
@@ -3364,7 +3426,7 @@
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="34"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="32"/>
       <c r="D49" t="s">
         <v>192</v>
@@ -3375,7 +3437,7 @@
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="32"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
@@ -3386,7 +3448,7 @@
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="34"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="32"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
@@ -3397,7 +3459,7 @@
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="32"/>
       <c r="D52" t="s">
         <v>198</v>
@@ -3408,7 +3470,7 @@
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="34"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="32"/>
       <c r="D53" t="s">
         <v>200</v>
@@ -3419,7 +3481,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="32"/>
       <c r="D54" t="s">
         <v>202</v>
@@ -3562,17 +3624,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3583,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,83 +3833,83 @@
       <c r="C17" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="32"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="32"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="32"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="32"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="32"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="32"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="32"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="32"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="32"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="32"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
@@ -3942,7 +4004,7 @@
       <c r="B41" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -3954,7 +4016,7 @@
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -3967,7 +4029,7 @@
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="34"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -3980,7 +4042,7 @@
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4047,4 +4109,118 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="37"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -18,7 +18,7 @@
     <sheet name="bootstrap" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="390">
   <si>
     <t>Stt bài</t>
   </si>
@@ -1758,6 +1758,191 @@
   <si>
     <t>&lt;link rel="stylesheet" href="https://maxcdn.bootstrapcdn.com/bootstrap/4.0.0/css/bootstrap.min.css"
           integrity="sha384-Gn5384xqQ1aoWXA+058RXPxPg6fy4IWvTNh0E263XmFcJlSAwiGgFAW/dAiS6JXm" crossorigin="anonymous"&gt;</t>
+  </si>
+  <si>
+    <t>link bootstrap table</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="https://maxcdn.bootstrapcdn.com/bootstrap/4.5.2/css/bootstrap.min.css"&gt;</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>table-dark,table-hover</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/3.5.1/jquery.min.js"&gt;&lt;/script&gt;
+  &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.16.0/umd/popper.min.js"&gt;&lt;/script&gt;
+  &lt;script src="https://maxcdn.bootstrapcdn.com/bootstrap/4.5.2/js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>navbar - right, navbar - left,
+navbar-inverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap - panel </t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>văn bản hiển thị trong 1 khung</t>
+  </si>
+  <si>
+    <t>&lt;div class = "panel panel-default"&gt;
+   &lt;div class = "panel-body"&gt;
+      This is a Basic panel
+   &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel có tiêu đề </t>
+  </si>
+  <si>
+    <t>thêm tiêu đề cho đoạn văn bản
+ở câu lệnh panel. Sử dụng bằng
+panel - heading hoặc ( dùng thẻ h1-h6
+rồi + class .panel - title</t>
+  </si>
+  <si>
+    <t>&lt;div class = "panel-heading"&gt;
+hoặc:
+ &lt;h3 class = "panel-title"&gt;
+         Panel With title
+      &lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel coó footer </t>
+  </si>
+  <si>
+    <t>sử dụng thẻ &lt;div&gt; có class 
+panel - footer</t>
+  </si>
+  <si>
+    <t>có thể thay panel - default = 
+panel-primary, panel-success, panel-info
+, panel-warning, panel-danger</t>
+  </si>
+  <si>
+    <t>&lt;div class = "panel-footer"&gt;
+Panel footer
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>panel và table</t>
+  </si>
+  <si>
+    <t>có thể thêm 1 bảng bên trong 1 panel</t>
+  </si>
+  <si>
+    <t>panel vaà list</t>
+  </si>
+  <si>
+    <t>coó thể thêm 1 list (ul,li) vào trong 
+1 panel</t>
+  </si>
+  <si>
+    <t>thanh điều hướng navbar</t>
+  </si>
+  <si>
+    <t>Thêm các class .navbar, .navbar-default cho thẻ &lt;nav&gt;</t>
+  </si>
+  <si>
+    <t>&lt;nav class = "navbar navbar-default" role = "navigation"&gt;
+ &lt;div class = "navbar-header"&gt;</t>
+  </si>
+  <si>
+    <t>reponsive navbar</t>
+  </si>
+  <si>
+    <t>sử dụng form ( nav-form)</t>
+  </si>
+  <si>
+    <t>căn theo chiều dọc và thu gọn kích thước khi khung nhìn bị hẹp lại</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+      &lt;form class = "navbar-form navbar-left" role = "search"&gt;</t>
+  </si>
+  <si>
+    <t>button trong navbar ...navbar-btn</t>
+  </si>
+  <si>
+    <t>sắp xếp các thành phần navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ul class = "nav navbar-nav navbar-left"&gt;</t>
+  </si>
+  <si>
+    <t>cố định navbar lên trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .navbar-fixed-top</t>
+  </si>
+  <si>
+    <t>&lt;nav class = "navbar navbar-default navbar-fixed-top" role = "navigation"&gt;</t>
+  </si>
+  <si>
+    <t>côố định navbar xuống dưới</t>
+  </si>
+  <si>
+    <t>.navbar-fixed-bottom</t>
+  </si>
+  <si>
+    <t>&lt;nav class = "navbar navbar-default
+ navbar-fixed-bottom" role = "navigation"&gt;</t>
+  </si>
+  <si>
+    <t>ko cố định navbar</t>
+  </si>
+  <si>
+    <t>.navbar-static-top</t>
+  </si>
+  <si>
+    <t>&lt;nav class = "navbar navbar-default navbar-static-top" role = "navigation"&gt;</t>
+  </si>
+  <si>
+    <t>đảo ngược thanh điều hướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .navbar-inverse.</t>
+  </si>
+  <si>
+    <t>&lt;nav class = "navbar navbar-inverse" role = "navigation"&gt;</t>
+  </si>
+  <si>
+    <t>list-group</t>
+  </si>
+  <si>
+    <t>sưử dụng để hiển thị nội dung dưới dạng danh sách. Thường sử dụng với thẻ &lt;ul&gt; or &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul class="list-group"&gt;
+            &lt;li class="list-group-item"&gt;Javascript&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class container đưa ra 1 khung
+ có chiều rộng cố định nhưng 
+thích ứng </t>
+  </si>
+  <si>
+    <t>.img - circle</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>tạo img có hình tròn</t>
+  </si>
+  <si>
+    <t>tạo thanh ddiefu hướng dạng tabs</t>
+  </si>
+  <si>
+    <t>nav-tabs</t>
+  </si>
+  <si>
+    <t>.nav-tabs</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +2125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2003,6 +2188,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,10 +2220,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2042,10 +2231,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2461,10 +2647,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2475,15 +2661,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2492,10 +2678,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2509,8 +2695,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2522,8 +2708,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,9 +2721,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2545,18 +2731,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2570,8 +2756,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2583,8 +2769,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2596,8 +2782,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2606,8 +2792,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2619,13 +2805,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2633,17 +2819,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2652,16 +2838,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -2673,10 +2859,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2695,8 +2881,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2706,8 +2892,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2776,7 +2962,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -2793,7 +2979,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -2808,7 +2994,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -2823,7 +3009,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -2883,10 +3069,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2894,57 +3080,57 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3122,7 +3308,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3134,12 +3320,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="33" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3149,10 +3335,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3162,10 +3348,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3175,7 +3361,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3410,11 +3596,11 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+      <c r="A48" s="33">
         <v>31</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="34" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3425,9 +3611,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="34"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3436,9 +3622,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="32"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3447,9 +3633,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3458,9 +3644,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="34"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -3469,9 +3655,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="34"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -3480,9 +3666,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="32"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="34"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -3596,7 +3782,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="33" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -3607,7 +3793,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C64" s="31"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -3624,17 +3810,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3830,86 +4016,86 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
@@ -3947,7 +4133,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="33" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -3961,7 +4147,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -3971,12 +4157,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="37" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -3986,10 +4172,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="36"/>
+      <c r="F39" s="38"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
+      <c r="B40" s="33"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4001,10 +4187,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4015,8 +4201,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="35"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4028,8 +4214,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="35"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4041,8 +4227,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="35"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4113,15 +4299,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
@@ -4129,7 +4315,7 @@
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4163,7 +4349,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>324</v>
       </c>
@@ -4174,7 +4360,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>326</v>
       </c>
@@ -4182,7 +4368,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>327</v>
       </c>
@@ -4190,7 +4376,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>328</v>
       </c>
@@ -4198,7 +4384,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>329</v>
       </c>
@@ -4206,20 +4392,250 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
+      <c r="C24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>384</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F10"/>
+  <mergeCells count="2">
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
     <sheet name="module3_SQL" sheetId="2" r:id="rId2"/>
     <sheet name="module3_css" sheetId="3" r:id="rId3"/>
     <sheet name="bootstrap" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="416">
   <si>
     <t>Stt bài</t>
   </si>
@@ -1943,6 +1945,99 @@
   </si>
   <si>
     <t>.nav-tabs</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://code.jquery.com/jquery-3.2.1.slim.min.js" integrity="sha384-KJ3o2DKtIkvYIK3UENzmM7KCkRr/rE9/Qpg6aAZGJwFDMVNA/GpGFF93hXpG5KkN" crossorigin="anonymous"&gt;&lt;/script&gt;
+&lt;script src="https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.12.9/umd/popper.min.js" integrity="sha384-ApNbgh9B+Y1QKtv3Rn7W3mgPxhU9K/ScQsAP7hUibX39j7fakFPskvXusvfa0b4Q" crossorigin="anonymous"&gt;&lt;/script&gt;
+&lt;script src="https://maxcdn.bootstrapcdn.com/bootstrap/4.0.0/js/bootstrap.min.js" integrity="sha384-JZR6Spejh4U02d8jOt6vLEHfe/JQGiRRSQQxSfFWpi1MquVdAyjUar5+76PVCmYl" crossorigin="anonymous"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Khai báo Servlet</t>
+  </si>
+  <si>
+    <t>Khai báo trong file web.xml</t>
+  </si>
+  <si>
+    <t>&lt;servlet-mapping&gt;
+    &lt;servlet-name&gt;TestServlet&lt;/servlet-name&gt;
+    &lt;url-pattern&gt;/&lt;/url-pattern&gt;
+&lt;/servlet-mapping&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&lt;servlet-name&gt;: tên của lớp Servlet.
+&lt;url-pattern&gt;: đường dẫn của Servlet (tính từ đường dẫn gốc của trang web).</t>
+  </si>
+  <si>
+    <t>khai báo annotation @webServlet</t>
+  </si>
+  <si>
+    <t>@'WebServlet(name = "TestServlet", urlPatterns = "/")
+public class TestServlet extends HttpServlet {
+ ...
+}</t>
+  </si>
+  <si>
+    <t>các phương thức HTTP</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Được dùng để lấy tài nguyên nằm ở địa chỉ được mô tả trong URL.</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Được dùng để hỏi server chấp nhận thông tin được đính trong phần body của request ví dụ như file upload, thông tin khách hàng… Cấu tạo của request POST tương tự như GET được gắn hêm thông tin bổ sung. Phương thức POST thường được gửi đến server dưới dạng form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Dùng để lấy thông tin về các header của request mà có thể nhận về. Cách hoạt động giống như GET nhưng phía server chỉ trả về các thông tin của header.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Trả về thông tin truy vấn mà máy chủ nhận được. Được sử dụng để kiểm tra truy vấn hoặc khắc phục sự cố.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Thông báo bổ sung thông tin được đính kèm vào tài nguyên được mô tả ở URL</t>
+  </si>
+  <si>
+    <t>Thông báo xóa thông tin được đính kèm khỏi tài nguyên được mô tả ở URL. Ví dụ xóa bỏ một khách hàng với id được truyền đi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Được sử dụng bởi Client để tìm ra danh sách các phương thức HTTP và các chức năng được hỗ trợ của một Server.</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2120,12 +2215,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2192,6 +2296,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2220,10 +2325,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2231,7 +2336,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2647,10 +2757,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2661,15 +2771,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2678,10 +2788,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2695,8 +2805,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2708,8 +2818,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2721,9 +2831,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2731,18 +2841,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2756,8 +2866,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2769,8 +2879,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2782,8 +2892,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2792,8 +2902,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2805,13 +2915,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2819,17 +2929,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2838,16 +2948,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -2859,10 +2969,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2881,8 +2991,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2892,8 +3002,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2926,7 +3036,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -2962,7 +3072,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -2979,7 +3089,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -2994,7 +3104,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3009,7 +3119,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3069,10 +3179,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3080,57 +3190,57 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3308,7 +3418,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3320,12 +3430,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3335,10 +3445,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3348,10 +3458,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3361,7 +3471,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3500,7 +3610,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -3595,12 +3705,12 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
         <v>31</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3611,9 +3721,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="35"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3622,9 +3732,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="36"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3633,9 +3743,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3644,9 +3754,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="35"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -3655,9 +3765,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="36"/>
-      <c r="C53" s="34"/>
+      <c r="C53" s="35"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -3666,9 +3776,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="35"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -3782,7 +3892,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="34" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -3793,7 +3903,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C64" s="33"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -3805,22 +3915,22 @@
   <autoFilter ref="A1:F55">
     <filterColumn colId="2">
       <filters>
-        <filter val="INDEX"/>
+        <filter val="limit"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3831,7 +3941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -4016,84 +4126,84 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>269</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
     </row>
@@ -4133,7 +4243,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="34" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4147,7 +4257,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4157,12 +4267,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="38" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4172,10 +4282,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
+      <c r="B40" s="34"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4187,10 +4297,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="37" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4201,8 +4311,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4214,8 +4324,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="37"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4227,8 +4337,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="37"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4299,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,249 +4502,397 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="C9" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F9" s="25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>337</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>339</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>340</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" t="s">
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" t="s">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" t="s">
         <v>354</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" t="s">
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" t="s">
         <v>356</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>358</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" t="s">
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" t="s">
         <v>366</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>365</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" t="s">
+    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" t="s">
         <v>387</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" t="s">
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" t="s">
         <v>371</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-      <c r="C24" t="s">
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" t="s">
         <v>374</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-      <c r="C25" t="s">
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" t="s">
         <v>377</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>378</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F10"/>
+  <autoFilter ref="A1:F11"/>
   <mergeCells count="2">
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C3" s="34"/>
+      <c r="D3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="441">
   <si>
     <t>Stt bài</t>
   </si>
@@ -1973,9 +1973,6 @@
 &lt;/servlet-mapping&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>&lt;servlet-name&gt;: tên của lớp Servlet.
 &lt;url-pattern&gt;: đường dẫn của Servlet (tính từ đường dẫn gốc của trang web).</t>
   </si>
@@ -2038,6 +2035,152 @@
   <si>
     <t xml:space="preserve"> 
 Được sử dụng bởi Client để tìm ra danh sách các phương thức HTTP và các chức năng được hỗ trợ của một Server.</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;c:out&gt; </t>
+  </si>
+  <si>
+    <t>&lt;c: set&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:out value = "${' ____' }" /&gt;.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;c:set scope="request"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> var="greeting"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">value="Hello every body" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;
+Greeting: &lt;c:out value="${greeting}"/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>var thuộc tính tên biến;
+value : giá trị của biến var 
+scope : phạm vi của biến</t>
+  </si>
+  <si>
+    <t>&lt;c:remove&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:set scope="request" var="greeting" value="Hello every body" /&gt;
+Greeting: &lt;c:out value="${greeting}"/&gt;
+&lt;br/&gt;&lt;br/&gt;
+&lt;c:remove scope="request" var="greeting" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c: catch&gt;</t>
+  </si>
+  <si>
+    <t>xóa biến và giá trị biến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:catch var ="ex"&gt;
+  &lt;%
+   int a = 100/0;   
+  %&gt;
+&lt;/c:catch&gt; </t>
+  </si>
+  <si>
+    <t>bắt ngoại lệ</t>
+  </si>
+  <si>
+    <t>&lt;c:if&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">được sử dụng để kiểm tra một điều kiện nào đó là đúng hay sai. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;c:set var = "salary" scope = "session" value = "${2000*2}"/&gt;
+      &lt;c:if test = "${salary &gt; 2000}"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:choose&gt;
+    &lt;c:when test="${điều kiên 1}"&gt;
+       &lt;%-- Làm gì đó ở đây khi điều kiện 1 đúng  --%&gt;
+    &lt;/c:when&gt;
+    &lt;c:when test="${điều kiên 2}"&gt;
+        &lt;%-- Làm gì đó ở đây khi điều kiện 2 đúng  --%&gt;
+    &lt;/c:when&gt;
+    &lt;c:otherwise&gt;
+        &lt;%-- Câu lệnh sẽ được thực thi khi tất cả các điều kiện tại &lt;c:when&gt; ở trên sai.  --%&gt;
+    &lt;/c:otherwise&gt;
+&lt;/c:choose&gt; </t>
+  </si>
+  <si>
+    <t>giống switch case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:choose&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;c:choose&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là thẻ thường được sử dụng vì nó lặp lại trên một bộ sưu tập các đối tượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;c:forEach var = "i" begin = "1" end = "5"&gt;
+         Item &lt;c:out value = "${i}"/&gt;&lt;p&gt;
+      &lt;/c:forEach&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:forTokens&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:forTokens items="Tom,Jerry,Donald" delims="," var="name"&gt;
+  &lt;c:out value="${name}"/&gt;&lt;p&gt;
+&lt;/c:forTokens&gt;</t>
+  </si>
+  <si>
+    <t>ngắt chuỗi giống split xog in ra từng phần tử.</t>
+  </si>
+  <si>
+    <t>link jstl maven</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/artifact/javax.servlet/jstl/1.2</t>
   </si>
 </sst>
 </file>
@@ -2297,6 +2440,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2325,19 +2471,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2757,10 +2900,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2771,15 +2914,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2788,10 +2931,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2805,8 +2948,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2818,8 +2961,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2831,9 +2974,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2841,18 +2984,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2866,8 +3009,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2879,8 +3022,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2892,8 +3035,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2902,8 +3045,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2915,13 +3058,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2929,17 +3072,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2948,16 +3091,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -2969,10 +3112,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2991,8 +3134,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3002,8 +3145,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3072,7 +3215,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3089,7 +3232,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3104,7 +3247,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3119,7 +3262,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3179,7 +3322,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="37" t="s">
@@ -3190,56 +3333,56 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="37"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="37"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="37"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="37"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="37"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="37"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
@@ -3418,7 +3561,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3430,12 +3573,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3445,10 +3588,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3458,10 +3601,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3471,7 +3614,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3706,11 +3849,11 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="35">
         <v>31</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="35" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="36" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3721,9 +3864,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="36"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3732,9 +3875,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3743,9 +3886,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3754,9 +3897,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="36"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -3765,9 +3908,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="36"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -3776,9 +3919,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="36"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -3892,7 +4035,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -3903,7 +4046,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C64" s="34"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -3920,17 +4063,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4126,86 +4269,86 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
@@ -4243,7 +4386,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4257,7 +4400,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4267,12 +4410,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="39" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4282,10 +4425,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
+      <c r="B40" s="35"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4297,7 +4440,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>292</v>
       </c>
       <c r="C41" s="37" t="s">
@@ -4311,7 +4454,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="37"/>
       <c r="D42" t="s">
         <v>295</v>
@@ -4324,7 +4467,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="37"/>
       <c r="D43" t="s">
         <v>296</v>
@@ -4337,7 +4480,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="37"/>
       <c r="D44" t="s">
         <v>297</v>
@@ -4558,7 +4701,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4575,7 +4718,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4587,7 +4730,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4599,7 +4742,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4608,7 +4751,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4617,7 +4760,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4631,13 +4774,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4649,7 +4792,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4661,7 +4804,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4673,7 +4816,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -4685,7 +4828,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -4697,7 +4840,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="35"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -4709,7 +4852,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
+      <c r="B26" s="35"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -4763,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H16" activeCellId="1" sqref="F30 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,80 +4956,173 @@
         <v>396</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C3" s="35"/>
+      <c r="D3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="34"/>
-      <c r="D3" t="s">
+      <c r="E3" s="27" t="s">
         <v>399</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
         <v>401</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>397</v>
+        <v>416</v>
+      </c>
+      <c r="E11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -2180,7 +2180,9 @@
     <t>link jstl maven</t>
   </si>
   <si>
-    <t>https://mvnrepository.com/artifact/javax.servlet/jstl/1.2</t>
+    <t xml:space="preserve">// https://mvnrepository.com/artifact/javax.servlet/jstl
+compile group: 'javax.servlet', name: 'jstl', version: '1.2'
+</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2441,6 +2443,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2900,10 +2905,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2914,15 +2919,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2931,10 +2936,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2948,8 +2953,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2961,8 +2966,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,9 +2979,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2984,18 +2989,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3009,8 +3014,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3022,8 +3027,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3035,8 +3040,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3045,8 +3050,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3058,13 +3063,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3072,17 +3077,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3091,16 +3096,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3112,10 +3117,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3134,8 +3139,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3145,8 +3150,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3215,7 +3220,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3232,7 +3237,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3247,7 +3252,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3262,7 +3267,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3322,10 +3327,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3333,57 +3338,57 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3561,7 +3566,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3573,12 +3578,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="36" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3588,10 +3593,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3601,10 +3606,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3614,7 +3619,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3849,11 +3854,11 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
+      <c r="A48" s="36">
         <v>31</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="36" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="37" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3864,9 +3869,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="37"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3875,9 +3880,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3886,9 +3891,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3897,9 +3902,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="36"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -3908,9 +3913,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -3919,9 +3924,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="36"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -4035,7 +4040,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="36" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -4046,7 +4051,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C64" s="35"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -4269,86 +4274,86 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="36"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="36"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="36"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="36"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="36"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="36"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
@@ -4386,7 +4391,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4400,7 +4405,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4410,12 +4415,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="40" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4425,10 +4430,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="40"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
+      <c r="B40" s="36"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4440,10 +4445,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4454,8 +4459,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4467,8 +4472,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="35"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="38"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4480,8 +4485,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4701,7 +4706,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4718,7 +4723,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4730,7 +4735,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4742,7 +4747,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4751,7 +4756,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4760,7 +4765,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4774,13 +4779,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4792,7 +4797,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4804,7 +4809,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4816,7 +4821,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+      <c r="B23" s="36"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -4828,7 +4833,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -4840,7 +4845,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
+      <c r="B25" s="36"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -4852,7 +4857,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -4909,7 +4914,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H16" activeCellId="1" sqref="F30 H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,7 +4951,7 @@
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -4960,7 +4965,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -5115,13 +5120,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="26" t="s">
         <v>439</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="28" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5130,7 +5135,10 @@
   <mergeCells count="1">
     <mergeCell ref="C2:C3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" display="https://mvnrepository.com/artifact/javax.servlet/jstl/1.2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -2180,9 +2180,8 @@
     <t>link jstl maven</t>
   </si>
   <si>
-    <t xml:space="preserve">// https://mvnrepository.com/artifact/javax.servlet/jstl
-compile group: 'javax.servlet', name: 'jstl', version: '1.2'
-</t>
+    <t xml:space="preserve"> providedCompile group: 'javax', name: 'javaee-api', version: '8.0.1'
+    compile group: 'javax.servlet', name: 'jstl', version: '1.2'</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2445,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4559,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +5119,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="26" t="s">
         <v>439</v>
       </c>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\module3\Baitap_module3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BV LAPTOP\Desktop\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2475,10 +2475,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3329,7 +3329,7 @@
       <c r="C9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3340,54 +3340,54 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="A48" s="36">
         <v>31</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="37" t="s">
         <v>190</v>
       </c>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="B49" s="39"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" t="s">
         <v>192</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
-      <c r="B50" s="39"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
-      <c r="B51" s="39"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" t="s">
         <v>198</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" t="s">
         <v>200</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
-      <c r="B54" s="39"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" t="s">
         <v>202</v>
@@ -4067,17 +4067,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4276,83 +4276,83 @@
       <c r="C17" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="37"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="37"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="37"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="37"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="37"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="37"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="37"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="37"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="37"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="37"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="37"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
@@ -4447,7 +4447,7 @@
       <c r="B41" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="39" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4459,7 +4459,7 @@
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
+      <c r="C42" s="39"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
-      <c r="C43" s="38"/>
+      <c r="C43" s="39"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
-      <c r="C44" s="38"/>
+      <c r="C44" s="39"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4558,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BV LAPTOP\Desktop\module3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\module3\Baitap_module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
     <sheet name="module3_SQL" sheetId="2" r:id="rId2"/>
     <sheet name="module3_css" sheetId="3" r:id="rId3"/>
     <sheet name="bootstrap" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="servlet" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">servlet!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="443">
   <si>
     <t>Stt bài</t>
   </si>
@@ -2182,6 +2182,14 @@
   <si>
     <t xml:space="preserve"> providedCompile group: 'javax', name: 'javaee-api', version: '8.0.1'
     compile group: 'javax.servlet', name: 'jstl', version: '1.2'</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// https://mvnrepository.com/artifact/mysql/mysql-connector-java
+compile group: 'mysql', name: 'mysql-connector-java', version: '5.1.46'
+</t>
   </si>
 </sst>
 </file>
@@ -3183,8 +3191,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -4062,7 +4070,7 @@
   <autoFilter ref="A1:F55">
     <filterColumn colId="2">
       <filters>
-        <filter val="limit"/>
+        <filter val="INSERT  INTO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4558,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,6 +5137,14 @@
         <v>440</v>
       </c>
     </row>
+    <row r="21" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <mergeCells count="1">

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\module3\Baitap_module3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BV LAPTOP\Desktop\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="445">
   <si>
     <t>Stt bài</t>
   </si>
@@ -2191,12 +2191,75 @@
 compile group: 'mysql', name: 'mysql-connector-java', version: '5.1.46'
 </t>
   </si>
+  <si>
+    <t>&lt;C:….&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;%@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">taglib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uri = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>http://java.sun.com/jsp/jstl/core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>" prefix = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>" %&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,6 +2374,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2381,7 +2463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2496,6 +2578,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2881,7 +2966,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -2891,7 +2976,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="37.5">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
@@ -2925,14 +3010,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="31"/>
       <c r="B3" s="30"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="31"/>
       <c r="B4" s="30"/>
       <c r="C4" s="1" t="s">
@@ -2942,7 +3027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="56.25">
       <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
@@ -2972,7 +3057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="1" t="s">
@@ -2985,7 +3070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="56.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31" t="s">
@@ -2995,7 +3080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="93.75">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -3003,7 +3088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="168.75">
       <c r="A10" s="29" t="s">
         <v>26</v>
       </c>
@@ -3020,7 +3105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="93.75">
       <c r="A11" s="29"/>
       <c r="B11" s="31"/>
       <c r="C11" s="1" t="s">
@@ -3033,7 +3118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="112.5">
       <c r="A12" s="29"/>
       <c r="B12" s="32" t="s">
         <v>32</v>
@@ -3046,7 +3131,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="56.25">
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="1" t="s">
@@ -3056,7 +3141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75">
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="1" t="s">
@@ -3069,7 +3154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="33" t="s">
         <v>43</v>
       </c>
@@ -3083,7 +3168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="112.5">
       <c r="A16" s="34"/>
       <c r="B16" s="35"/>
       <c r="C16" s="32"/>
@@ -3091,7 +3176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="56.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="32"/>
@@ -3102,7 +3187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="112.5">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="32"/>
@@ -3110,7 +3195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="131.25">
       <c r="A19" s="34"/>
       <c r="B19" s="35"/>
       <c r="C19" s="1" t="s">
@@ -3123,7 +3208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="120.75" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>54</v>
       </c>
@@ -3145,7 +3230,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="150" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
@@ -3156,7 +3241,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
@@ -3191,11 +3276,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="4" width="35.42578125" customWidth="1"/>
@@ -3203,7 +3288,7 @@
     <col min="6" max="6" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3240,7 +3325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3255,7 +3340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3270,7 +3355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3285,7 +3370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3299,7 +3384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3316,7 +3401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3330,7 +3415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3344,7 +3429,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" hidden="1">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -3355,7 +3440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="114.75" hidden="1">
       <c r="A11" s="36"/>
       <c r="B11" s="38"/>
       <c r="C11" s="36"/>
@@ -3364,7 +3449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="100.5" hidden="1">
       <c r="A12" s="36"/>
       <c r="B12" s="38"/>
       <c r="C12" s="36"/>
@@ -3373,7 +3458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" hidden="1">
       <c r="A13" s="36"/>
       <c r="B13" s="38"/>
       <c r="C13" s="36"/>
@@ -3382,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" hidden="1">
       <c r="A14" s="36"/>
       <c r="B14" s="38"/>
       <c r="C14" s="36"/>
@@ -3391,7 +3476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" hidden="1">
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="36"/>
@@ -3400,7 +3485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="135">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3414,7 +3499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="60" hidden="1">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3428,7 +3513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60" hidden="1">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3442,7 +3527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" hidden="1">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3456,7 +3541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="45" hidden="1">
       <c r="A20">
         <v>14</v>
       </c>
@@ -3473,7 +3558,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="120" hidden="1">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3490,7 +3575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="360" hidden="1">
       <c r="A22">
         <v>16</v>
       </c>
@@ -3507,7 +3592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="270" hidden="1">
       <c r="A23">
         <v>17</v>
       </c>
@@ -3521,7 +3606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" hidden="1">
       <c r="A24">
         <v>18</v>
       </c>
@@ -3538,7 +3623,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="75" hidden="1">
       <c r="A25">
         <v>19</v>
       </c>
@@ -3555,7 +3640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="45" hidden="1">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3569,7 +3654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="60" hidden="1">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3589,7 +3674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="60" hidden="1">
       <c r="B28" s="36"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
@@ -3602,7 +3687,7 @@
       </c>
       <c r="F28" s="36"/>
     </row>
-    <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="60" hidden="1">
       <c r="B29" s="36"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
@@ -3615,7 +3700,7 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" hidden="1">
       <c r="B30" s="36"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
@@ -3628,7 +3713,7 @@
       </c>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1">
       <c r="C31" s="10" t="s">
         <v>144</v>
       </c>
@@ -3639,7 +3724,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45" hidden="1">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3653,7 +3738,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="45" hidden="1">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3667,7 +3752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="45" hidden="1">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3681,7 +3766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="45" hidden="1">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3695,7 +3780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="45" hidden="1">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3709,7 +3794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" hidden="1">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3723,7 +3808,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" hidden="1">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3737,7 +3822,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39">
         <v>22</v>
       </c>
@@ -3751,7 +3836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40">
         <v>23</v>
       </c>
@@ -3765,7 +3850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41">
         <v>24</v>
       </c>
@@ -3779,7 +3864,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="105" hidden="1">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3796,7 +3881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1">
       <c r="C43" s="10" t="s">
         <v>227</v>
       </c>
@@ -3808,7 +3893,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="45" hidden="1">
       <c r="A44">
         <v>26</v>
       </c>
@@ -3822,7 +3907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="43.5" hidden="1">
       <c r="A45">
         <v>27</v>
       </c>
@@ -3833,7 +3918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" hidden="1">
       <c r="A46">
         <v>28</v>
       </c>
@@ -3844,7 +3929,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45" hidden="1">
       <c r="A47" s="10">
         <v>30</v>
       </c>
@@ -3860,7 +3945,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30" hidden="1">
       <c r="A48" s="36">
         <v>31</v>
       </c>
@@ -3875,7 +3960,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" hidden="1">
       <c r="A49" s="36"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
@@ -3886,7 +3971,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" hidden="1">
       <c r="A50" s="36"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
@@ -3897,7 +3982,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30" hidden="1">
       <c r="A51" s="36"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
@@ -3908,7 +3993,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" hidden="1">
       <c r="A52" s="36"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
@@ -3919,7 +4004,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" hidden="1">
       <c r="A53" s="36"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
@@ -3930,7 +4015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="36"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
@@ -3941,7 +4026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="120" hidden="1">
       <c r="A55" s="10">
         <v>32</v>
       </c>
@@ -3959,7 +4044,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
@@ -3973,7 +4058,7 @@
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="60">
       <c r="A57">
         <v>33</v>
       </c>
@@ -3987,7 +4072,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="150">
       <c r="C58" s="10" t="s">
         <v>209</v>
       </c>
@@ -3998,13 +4083,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="C59" s="10" t="s">
         <v>210</v>
       </c>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>34</v>
       </c>
@@ -4018,7 +4103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="45">
       <c r="A61">
         <v>35</v>
       </c>
@@ -4032,7 +4117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62">
         <v>36</v>
       </c>
@@ -4046,7 +4131,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="210">
       <c r="C63" s="36" t="s">
         <v>316</v>
       </c>
@@ -4057,7 +4142,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="90">
       <c r="C64" s="36"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
@@ -4100,7 +4185,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
@@ -4109,7 +4194,7 @@
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4129,7 +4214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="30">
       <c r="C2" s="10" t="s">
         <v>230</v>
       </c>
@@ -4137,7 +4222,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="C3" t="s">
         <v>232</v>
       </c>
@@ -4148,7 +4233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
@@ -4160,7 +4245,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45">
       <c r="C5" t="s">
         <v>236</v>
       </c>
@@ -4171,7 +4256,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" t="s">
         <v>239</v>
       </c>
@@ -4182,7 +4267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>243</v>
       </c>
@@ -4190,7 +4275,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="C8" s="10" t="s">
         <v>245</v>
       </c>
@@ -4201,7 +4286,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>249</v>
       </c>
@@ -4212,7 +4297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>251</v>
       </c>
@@ -4223,7 +4308,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>254</v>
       </c>
@@ -4234,7 +4319,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>257</v>
       </c>
@@ -4242,7 +4327,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>259</v>
       </c>
@@ -4253,7 +4338,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>262</v>
       </c>
@@ -4261,7 +4346,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>264</v>
       </c>
@@ -4269,7 +4354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45">
       <c r="C16" s="10" t="s">
         <v>266</v>
       </c>
@@ -4280,89 +4365,89 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" s="37" t="s">
         <v>269</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5">
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5">
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="60">
       <c r="C33" s="7" t="s">
         <v>270</v>
       </c>
@@ -4370,7 +4455,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="75">
       <c r="C34" s="7" t="s">
         <v>272</v>
       </c>
@@ -4378,7 +4463,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="C35" t="s">
         <v>275</v>
       </c>
@@ -4389,7 +4474,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="D36" t="s">
         <v>278</v>
       </c>
@@ -4397,7 +4482,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="36" t="s">
         <v>290</v>
       </c>
@@ -4411,7 +4496,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="36"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
@@ -4426,7 +4511,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="30">
       <c r="B39" s="36"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
@@ -4439,7 +4524,7 @@
       </c>
       <c r="F39" s="41"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="36"/>
       <c r="C40" t="s">
         <v>288</v>
@@ -4451,7 +4536,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="30" customHeight="1">
       <c r="B41" s="36" t="s">
         <v>292</v>
       </c>
@@ -4465,7 +4550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="75">
       <c r="B42" s="36"/>
       <c r="C42" s="39"/>
       <c r="D42" t="s">
@@ -4478,7 +4563,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="120">
       <c r="B43" s="36"/>
       <c r="C43" s="39"/>
       <c r="D43" t="s">
@@ -4491,7 +4576,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="75">
       <c r="B44" s="36"/>
       <c r="C44" s="39"/>
       <c r="D44" t="s">
@@ -4504,7 +4589,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>305</v>
       </c>
@@ -4518,7 +4603,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="D46" t="s">
         <v>308</v>
       </c>
@@ -4529,7 +4614,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="D47" t="s">
         <v>312</v>
       </c>
@@ -4537,7 +4622,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="60">
       <c r="D48" t="s">
         <v>319</v>
       </c>
@@ -4566,11 +4651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4580,7 +4665,7 @@
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4614,7 +4699,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>324</v>
       </c>
@@ -4625,7 +4710,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>326</v>
       </c>
@@ -4633,7 +4718,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>327</v>
       </c>
@@ -4641,7 +4726,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>328</v>
       </c>
@@ -4649,7 +4734,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" t="s">
         <v>329</v>
       </c>
@@ -4657,7 +4742,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="345">
       <c r="C8" t="s">
         <v>392</v>
       </c>
@@ -4665,7 +4750,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="165">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
         <v>335</v>
@@ -4681,7 +4766,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>337</v>
       </c>
@@ -4695,12 +4780,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30">
       <c r="C11" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -4712,7 +4797,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75">
       <c r="B13" s="36" t="s">
         <v>343</v>
       </c>
@@ -4729,7 +4814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="75">
       <c r="B14" s="36"/>
       <c r="C14" t="s">
         <v>347</v>
@@ -4741,7 +4826,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45">
       <c r="B15" s="36"/>
       <c r="C15" t="s">
         <v>350</v>
@@ -4753,7 +4838,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="36"/>
       <c r="C16" t="s">
         <v>354</v>
@@ -4762,7 +4847,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="45">
       <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>356</v>
@@ -4771,7 +4856,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="45">
       <c r="B18" s="36" t="s">
         <v>358</v>
       </c>
@@ -4785,13 +4870,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="36"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="45">
       <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>362</v>
@@ -4803,7 +4888,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="36"/>
       <c r="C21" t="s">
         <v>366</v>
@@ -4815,7 +4900,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="45">
       <c r="B22" s="36"/>
       <c r="C22" t="s">
         <v>368</v>
@@ -4827,7 +4912,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="36"/>
       <c r="C23" t="s">
         <v>387</v>
@@ -4839,7 +4924,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="45">
       <c r="B24" s="36"/>
       <c r="C24" t="s">
         <v>371</v>
@@ -4851,7 +4936,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="45">
       <c r="B25" s="36"/>
       <c r="C25" t="s">
         <v>374</v>
@@ -4863,7 +4948,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="30">
       <c r="B26" s="36"/>
       <c r="C26" t="s">
         <v>377</v>
@@ -4875,7 +4960,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="45">
       <c r="C27" t="s">
         <v>380</v>
       </c>
@@ -4886,7 +4971,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="45">
       <c r="C28" t="s">
         <v>321</v>
       </c>
@@ -4894,7 +4979,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="C29" t="s">
         <v>385</v>
       </c>
@@ -4918,13 +5003,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -4934,7 +5019,7 @@
     <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4954,7 +5039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75">
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
@@ -4971,7 +5056,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90">
       <c r="C3" s="36"/>
       <c r="D3" t="s">
         <v>398</v>
@@ -4980,7 +5065,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45">
       <c r="D4" t="s">
         <v>400</v>
       </c>
@@ -4991,7 +5076,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90">
       <c r="E5" t="s">
         <v>403</v>
       </c>
@@ -4999,7 +5084,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60">
       <c r="E6" t="s">
         <v>404</v>
       </c>
@@ -5007,7 +5092,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45">
       <c r="E7" t="s">
         <v>405</v>
       </c>
@@ -5015,7 +5100,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="E8" t="s">
         <v>406</v>
       </c>
@@ -5023,7 +5108,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="E9" t="s">
         <v>407</v>
       </c>
@@ -5031,7 +5116,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45">
       <c r="E10" t="s">
         <v>408</v>
       </c>
@@ -5039,7 +5124,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>415</v>
       </c>
@@ -5050,7 +5135,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45">
       <c r="C12" t="s">
         <v>417</v>
       </c>
@@ -5061,7 +5146,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="90">
       <c r="C13" t="s">
         <v>421</v>
       </c>
@@ -5072,7 +5157,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75">
       <c r="C14" t="s">
         <v>423</v>
       </c>
@@ -5083,7 +5168,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" t="s">
         <v>427</v>
       </c>
@@ -5094,7 +5179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="225">
       <c r="C16" s="15" t="s">
         <v>432</v>
       </c>
@@ -5105,7 +5190,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="45">
       <c r="C17" t="s">
         <v>433</v>
       </c>
@@ -5116,7 +5201,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="60">
       <c r="C18" t="s">
         <v>436</v>
       </c>
@@ -5127,7 +5212,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="131.25" customHeight="1">
       <c r="C19" s="26" t="s">
         <v>439</v>
       </c>
@@ -5137,12 +5222,20 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="75">
       <c r="C21" t="s">
         <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BV LAPTOP\Desktop\module3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\module3\Baitap_module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,13 @@
     <sheet name="module3_css" sheetId="3" r:id="rId3"/>
     <sheet name="bootstrap" sheetId="4" r:id="rId4"/>
     <sheet name="servlet" sheetId="5" r:id="rId5"/>
+    <sheet name="Module3_JDBC" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bootstrap!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">module2!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">module3_css!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Module3_JDBC!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">module3_SQL!$A$1:$F$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">servlet!$A$1:$F$1</definedName>
   </definedNames>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="461">
   <si>
     <t>Stt bài</t>
   </si>
@@ -2254,12 +2256,63 @@
       <t>" %&gt;</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">// https://mvnrepository.com/artifact/mysql/mysql-connector-java
+compile group: 'mysql', name: 'mysql-connector-java', version: '8.0.11'
+</t>
+  </si>
+  <si>
+    <t>Kết nối jdbc</t>
+  </si>
+  <si>
+    <t>// https://mvnrepository.com/artifact/mysql/mysql-connector-java
+compile group: 'mysql', name: 'mysql-connector-java', version: '5.1.46'</t>
+  </si>
+  <si>
+    <t>quản lí transaction</t>
+  </si>
+  <si>
+    <t>void setAutoCommit(boolean status)</t>
+  </si>
+  <si>
+    <t>kí thác sau khi thao tác vs database (default là true)</t>
+  </si>
+  <si>
+    <t>void commit()</t>
+  </si>
+  <si>
+    <t>kií tác sau khi thay đổi</t>
+  </si>
+  <si>
+    <t>void rollback()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa các thay đổi đã thực hiện </t>
+  </si>
+  <si>
+    <t>setSavepoint(String ten_cua_savepoint)</t>
+  </si>
+  <si>
+    <t>Định nghĩa một savepoint mới. Phương thức này cũng trả về một đối tượng Savepoint.</t>
+  </si>
+  <si>
+    <t>releaseSavepoint(Savepoint ten_cua_savepoint)</t>
+  </si>
+  <si>
+    <t>Xóa một savepoint.</t>
+  </si>
+  <si>
+    <t>rollback</t>
+  </si>
+  <si>
+    <t>Quay về trạng thái của savepoint đã cho.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,6 +2446,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2463,7 +2522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2537,6 +2596,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2579,9 +2641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2997,10 +3057,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3011,15 +3071,15 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3028,10 +3088,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3045,8 +3105,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3058,8 +3118,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3071,9 +3131,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3081,18 +3141,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3106,8 +3166,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3119,8 +3179,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3132,8 +3192,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3142,8 +3202,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3155,13 +3215,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3169,17 +3229,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3188,16 +3248,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3209,10 +3269,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3231,8 +3291,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3242,8 +3302,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3336,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3312,7 +3372,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3329,7 +3389,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3344,7 +3404,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3359,7 +3419,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3384,7 +3444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" hidden="1">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3401,7 +3461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" hidden="1">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3419,10 +3479,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3430,62 +3490,62 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1">
-      <c r="A10" s="36">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135">
+    <row r="16" spans="1:6" ht="135" hidden="1">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3541,7 +3601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" hidden="1">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20">
         <v>14</v>
       </c>
@@ -3658,7 +3718,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3670,12 +3730,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1">
-      <c r="B28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3685,10 +3745,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1">
-      <c r="B29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3698,10 +3758,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1">
-      <c r="B30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3711,7 +3771,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="C31" s="10" t="s">
@@ -3946,11 +4006,11 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="30" hidden="1">
-      <c r="A48" s="36">
+      <c r="A48" s="37">
         <v>31</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="38" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3961,9 +4021,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="38"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3972,9 +4032,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3983,9 +4043,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="37"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3994,9 +4054,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -4005,9 +4065,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -4016,9 +4076,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="38"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -4132,7 +4192,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210">
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="37" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -4143,7 +4203,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90">
-      <c r="C64" s="36"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -4155,7 +4215,9 @@
   <autoFilter ref="A1:F55">
     <filterColumn colId="2">
       <filters>
-        <filter val="INSERT  INTO"/>
+        <filter val="ALTER TABLE - ADD"/>
+        <filter val="ALTER TABLE - ALTER (MODIFY)"/>
+        <filter val="ALTER TABLE - Drop"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4366,86 +4428,86 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="2:6" ht="60">
       <c r="C33" s="7" t="s">
@@ -4483,7 +4545,7 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4497,7 +4559,7 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="36"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4507,12 +4569,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="41" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30">
-      <c r="B39" s="36"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4522,10 +4584,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="36"/>
+      <c r="B40" s="37"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4537,10 +4599,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="40" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4551,8 +4613,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75">
-      <c r="B42" s="36"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="40"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4564,8 +4626,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120">
-      <c r="B43" s="36"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="40"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4577,8 +4639,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="40"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4798,7 +4860,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4815,7 +4877,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4827,7 +4889,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
-      <c r="B15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4839,7 +4901,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4848,7 +4910,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="45">
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4857,7 +4919,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="45">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4871,13 +4933,13 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45">
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4889,7 +4951,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4901,7 +4963,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45">
-      <c r="B22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4913,7 +4975,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -4925,7 +4987,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="45">
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -4937,7 +4999,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="45">
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -4949,7 +5011,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30">
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -5003,10 +5065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5043,7 +5105,7 @@
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5057,7 +5119,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90">
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -5234,8 +5296,13 @@
       <c r="C22" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="29" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="75">
+      <c r="F24" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5249,4 +5316,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="88.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="D5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="D7" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="D8" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="464">
   <si>
     <t>Stt bài</t>
   </si>
@@ -2306,6 +2306,17 @@
   </si>
   <si>
     <t>Quay về trạng thái của savepoint đã cho.</t>
+  </si>
+  <si>
+    <t>Cú pháp tạo khóa chính bằng lệnh
+ ALTER TABLE</t>
+  </si>
+  <si>
+    <t>ALTER TABLE ten_bang
+ ADD CONSTRAINT ten_rang_buoc PRIMARY KEY (cot1, cot2, … cot_n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2599,6 +2610,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,7 +2653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3057,10 +3068,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3071,15 +3082,15 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3088,10 +3099,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3105,8 +3116,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3118,8 +3129,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3131,9 +3142,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3141,18 +3152,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3166,8 +3177,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,8 +3190,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3192,8 +3203,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3202,8 +3213,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3215,13 +3226,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3229,17 +3240,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3248,16 +3259,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3269,10 +3280,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3291,8 +3302,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3302,8 +3313,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3333,11 +3344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3368,11 +3378,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3385,11 +3395,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3400,11 +3410,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" hidden="1">
+    <row r="4" spans="1:6" ht="60">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3415,11 +3425,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +3440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" hidden="1">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3475,77 +3485,77 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" hidden="1">
+    <row r="9" spans="1:6" ht="75">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" hidden="1">
-      <c r="A10" s="37">
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="114.75" hidden="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
+    <row r="11" spans="1:6" ht="114.75">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="100.5" hidden="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="40"/>
+    <row r="12" spans="1:6" ht="100.5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" hidden="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40"/>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" hidden="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="40"/>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" hidden="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40"/>
+    <row r="15" spans="1:6" ht="75">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135" hidden="1">
+    <row r="16" spans="1:6" ht="135">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3559,7 +3569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" hidden="1">
+    <row r="17" spans="1:6" ht="60">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" hidden="1">
+    <row r="18" spans="1:6" ht="60">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" hidden="1">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3618,7 +3628,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="120" hidden="1">
+    <row r="21" spans="1:6" ht="120">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="360" hidden="1">
+    <row r="22" spans="1:6" ht="360">
       <c r="A22">
         <v>16</v>
       </c>
@@ -3652,7 +3662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="270" hidden="1">
+    <row r="23" spans="1:6" ht="270">
       <c r="A23">
         <v>17</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" hidden="1">
+    <row r="24" spans="1:6" ht="60">
       <c r="A24">
         <v>18</v>
       </c>
@@ -3683,7 +3693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="75" hidden="1">
+    <row r="25" spans="1:6" ht="75">
       <c r="A25">
         <v>19</v>
       </c>
@@ -3700,7 +3710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" hidden="1">
+    <row r="26" spans="1:6" ht="45">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3714,11 +3724,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" hidden="1">
+    <row r="27" spans="1:6" ht="60">
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3730,12 +3740,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" hidden="1">
-      <c r="B28" s="37"/>
+    <row r="28" spans="1:6" ht="60">
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3745,10 +3755,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" spans="1:6" ht="60" hidden="1">
-      <c r="B29" s="37"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" ht="60">
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3758,10 +3768,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="1:6" ht="75" hidden="1">
-      <c r="B30" s="37"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" ht="75">
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3771,9 +3781,9 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1">
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="C31" s="10" t="s">
         <v>144</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" hidden="1">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3798,7 +3808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" hidden="1">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3812,7 +3822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" hidden="1">
+    <row r="34" spans="1:6" ht="45">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" hidden="1">
+    <row r="35" spans="1:6" ht="45">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3840,7 +3850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" hidden="1">
+    <row r="36" spans="1:6" ht="45">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" hidden="1">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" hidden="1">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>22</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>23</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>24</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="105" hidden="1">
+    <row r="42" spans="1:6" ht="105">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="C43" s="10" t="s">
         <v>227</v>
       </c>
@@ -3953,7 +3963,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="45" hidden="1">
+    <row r="44" spans="1:6" ht="45">
       <c r="A44">
         <v>26</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5" hidden="1">
+    <row r="45" spans="1:6" ht="43.5">
       <c r="A45">
         <v>27</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" hidden="1">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46">
         <v>28</v>
       </c>
@@ -3989,7 +3999,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" hidden="1">
+    <row r="47" spans="1:6" ht="45">
       <c r="A47" s="10">
         <v>30</v>
       </c>
@@ -4005,12 +4015,12 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="30" hidden="1">
-      <c r="A48" s="37">
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="38">
         <v>31</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="39" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -4020,10 +4030,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" hidden="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -4031,10 +4041,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" hidden="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -4042,10 +4052,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" hidden="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="38"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -4053,10 +4063,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" hidden="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38"/>
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="39"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -4064,10 +4074,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" hidden="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -4075,10 +4085,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="38"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120" hidden="1">
+    <row r="55" spans="1:6" ht="120">
       <c r="A55" s="10">
         <v>32</v>
       </c>
@@ -4192,7 +4202,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210">
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -4203,7 +4213,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90">
-      <c r="C64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -4211,16 +4221,21 @@
         <v>318</v>
       </c>
     </row>
+    <row r="65" spans="4:5" ht="45">
+      <c r="D65" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="E69" t="s">
+        <v>463</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F55">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ALTER TABLE - ADD"/>
-        <filter val="ALTER TABLE - ALTER (MODIFY)"/>
-        <filter val="ALTER TABLE - Drop"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F55"/>
   <mergeCells count="11">
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B2:B5"/>
@@ -4428,86 +4443,86 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="2:6" ht="60">
       <c r="C33" s="7" t="s">
@@ -4545,7 +4560,7 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4559,7 +4574,7 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4569,12 +4584,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="42" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30">
-      <c r="B39" s="37"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4584,10 +4599,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4599,10 +4614,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="41" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4613,8 +4628,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75">
-      <c r="B42" s="37"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="41"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4626,8 +4641,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120">
-      <c r="B43" s="37"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="41"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4639,8 +4654,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75">
-      <c r="B44" s="37"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="41"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4860,7 +4875,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4877,7 +4892,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4889,7 +4904,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4901,7 +4916,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4910,7 +4925,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="45">
-      <c r="B17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4919,7 +4934,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="45">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4933,13 +4948,13 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45">
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4951,7 +4966,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4963,7 +4978,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45">
-      <c r="B22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4975,7 +4990,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -4987,7 +5002,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="45">
-      <c r="B24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -4999,7 +5014,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="45">
-      <c r="B25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -5011,7 +5026,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30">
-      <c r="B26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -5067,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5105,7 +5120,7 @@
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5119,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90">
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -5322,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5379,7 +5394,7 @@
       <c r="D3" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="30" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5387,7 +5402,7 @@
       <c r="D4" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="30" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5395,7 +5410,7 @@
       <c r="D5" t="s">
         <v>454</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="30" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5403,23 +5418,23 @@
       <c r="D6" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="30" t="s">
         <v>459</v>
       </c>
     </row>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -2197,66 +2197,6 @@
     <t>&lt;C:….&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;%@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">taglib </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>uri = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>http://java.sun.com/jsp/jstl/core</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>" prefix = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>" %&gt;</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">// https://mvnrepository.com/artifact/mysql/mysql-connector-java
 compile group: 'mysql', name: 'mysql-connector-java', version: '8.0.11'
 </t>
@@ -2317,13 +2257,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>%@ taglib uri = "http://java.sun.com/jsp/jstl/core" prefix = "c" %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,25 +2380,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFCC7832"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2607,10 +2531,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,10 +2560,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2652,6 +2573,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3037,7 +2961,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -3047,7 +2971,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3067,11 +2991,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.5">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3081,16 +3005,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="33"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33"/>
-      <c r="B4" s="32"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3098,11 +3022,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3115,9 +3039,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3128,9 +3052,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3141,29 +3065,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="56.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="93.75">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="168.75">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3176,9 +3100,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="93.75">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3189,9 +3113,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="112.5">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3202,9 +3126,9 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="56.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
+    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,9 +3136,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3225,32 +3149,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="112.5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="56.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3258,17 +3182,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="112.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="131.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+    <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3279,11 +3203,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="120.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3301,9 +3225,9 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="150" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+    <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3312,9 +3236,9 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3344,13 +3268,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="4" width="35.42578125" customWidth="1"/>
@@ -3358,7 +3283,7 @@
     <col min="6" max="6" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3378,11 +3303,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3395,11 +3320,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3410,11 +3335,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60">
+    <row r="4" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3425,11 +3350,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3440,7 +3365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3454,7 +3379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3471,7 +3396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3485,77 +3410,77 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
+    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
-      <c r="A10" s="38">
+    <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
       <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="114.75">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="100.5">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
       <c r="B12" s="40"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135">
+    <row r="16" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3569,7 +3494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3583,7 +3508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
+    <row r="18" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3597,7 +3522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3611,7 +3536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -3628,7 +3553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="120">
+    <row r="21" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3645,7 +3570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="360">
+    <row r="22" spans="1:6" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -3662,7 +3587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="270">
+    <row r="23" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -3676,7 +3601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60">
+    <row r="24" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -3693,7 +3618,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="75">
+    <row r="25" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -3710,7 +3635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45">
+    <row r="26" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3724,11 +3649,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60">
+    <row r="27" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3740,12 +3665,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60">
-      <c r="B28" s="38"/>
+    <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3755,10 +3680,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" ht="60">
-      <c r="B29" s="38"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3768,10 +3693,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="1:6" ht="75">
-      <c r="B30" s="38"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3781,9 +3706,9 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
         <v>144</v>
       </c>
@@ -3794,7 +3719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3808,7 +3733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3822,7 +3747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45">
+    <row r="34" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17</v>
       </c>
@@ -3836,7 +3761,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45">
+    <row r="35" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3850,7 +3775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3864,7 +3789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3878,7 +3803,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3892,7 +3817,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22</v>
       </c>
@@ -3906,7 +3831,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>23</v>
       </c>
@@ -3920,7 +3845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -3934,7 +3859,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="105">
+    <row r="42" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3951,7 +3876,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="10" t="s">
         <v>227</v>
       </c>
@@ -3963,7 +3888,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="45">
+    <row r="44" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>26</v>
       </c>
@@ -3977,7 +3902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5">
+    <row r="45" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>27</v>
       </c>
@@ -3988,7 +3913,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
@@ -3999,7 +3924,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>30</v>
       </c>
@@ -4015,12 +3940,12 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="38">
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
         <v>31</v>
       </c>
       <c r="B48" s="40"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -4030,10 +3955,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="39"/>
+      <c r="C49" s="38"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -4041,10 +3966,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -4052,10 +3977,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
       <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -4063,10 +3988,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
       <c r="B52" s="40"/>
-      <c r="C52" s="39"/>
+      <c r="C52" s="38"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -4074,10 +3999,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="38"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -4085,10 +4010,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="38"/>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
       <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="38"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -4096,7 +4021,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120">
+    <row r="55" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>32</v>
       </c>
@@ -4114,7 +4039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
@@ -4128,7 +4053,7 @@
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="60">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>33</v>
       </c>
@@ -4142,7 +4067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="150">
+    <row r="58" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="C58" s="10" t="s">
         <v>209</v>
       </c>
@@ -4153,13 +4078,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
         <v>210</v>
       </c>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>34</v>
       </c>
@@ -4173,7 +4098,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>35</v>
       </c>
@@ -4187,7 +4112,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>36</v>
       </c>
@@ -4201,8 +4126,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="210">
-      <c r="C63" s="38" t="s">
+    <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="C63" s="37" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -4212,8 +4137,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90">
-      <c r="C64" s="38"/>
+    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C64" s="37"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -4221,33 +4146,39 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="45">
+    <row r="65" spans="4:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D65" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E65" s="7" t="s">
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
-      <c r="E69" t="s">
-        <v>463</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F55"/>
+  <autoFilter ref="A1:F55">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FOREIGN KEY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4262,7 +4193,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
@@ -4271,7 +4202,7 @@
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4291,7 +4222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="30">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>230</v>
       </c>
@@ -4299,7 +4230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>232</v>
       </c>
@@ -4310,7 +4241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
@@ -4322,7 +4253,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>236</v>
       </c>
@@ -4333,7 +4264,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>239</v>
       </c>
@@ -4344,7 +4275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>243</v>
       </c>
@@ -4352,7 +4283,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>245</v>
       </c>
@@ -4363,7 +4294,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>249</v>
       </c>
@@ -4374,7 +4305,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>251</v>
       </c>
@@ -4385,7 +4316,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>254</v>
       </c>
@@ -4396,7 +4327,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>257</v>
       </c>
@@ -4404,7 +4335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>259</v>
       </c>
@@ -4415,7 +4346,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>262</v>
       </c>
@@ -4423,7 +4354,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>264</v>
       </c>
@@ -4431,7 +4362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>266</v>
       </c>
@@ -4442,89 +4373,89 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="39" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="38" t="s">
         <v>269</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="39"/>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="38"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="39"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="38"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="39"/>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="38"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="39"/>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="38"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="39"/>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="38"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="39"/>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="38"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="39"/>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="38"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
     </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="39"/>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="38"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="39"/>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="38"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="39"/>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="38"/>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="39"/>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="38"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
     </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="39"/>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="38"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="39"/>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="38"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
     </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="39"/>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="38"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
     </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="39"/>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="38"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
     </row>
-    <row r="33" spans="2:6" ht="60">
+    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
         <v>270</v>
       </c>
@@ -4532,7 +4463,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="75">
+    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
         <v>272</v>
       </c>
@@ -4540,7 +4471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>275</v>
       </c>
@@ -4551,7 +4482,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>278</v>
       </c>
@@ -4559,8 +4490,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="38" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4573,8 +4504,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="38"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4584,12 +4515,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="30">
-      <c r="B39" s="38"/>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4599,10 +4530,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="38"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4613,11 +4544,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="30" customHeight="1">
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="39" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4627,9 +4558,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="75">
-      <c r="B42" s="38"/>
-      <c r="C42" s="41"/>
+    <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="39"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4640,9 +4571,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="120">
-      <c r="B43" s="38"/>
-      <c r="C43" s="41"/>
+    <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="39"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4653,9 +4584,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="75">
-      <c r="B44" s="38"/>
-      <c r="C44" s="41"/>
+    <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="39"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4666,7 +4597,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>305</v>
       </c>
@@ -4680,7 +4611,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>308</v>
       </c>
@@ -4691,7 +4622,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>312</v>
       </c>
@@ -4699,7 +4630,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="60">
+    <row r="48" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>319</v>
       </c>
@@ -4732,7 +4663,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4742,7 +4673,7 @@
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4762,7 +4693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4776,7 +4707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>324</v>
       </c>
@@ -4787,7 +4718,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>326</v>
       </c>
@@ -4795,7 +4726,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>327</v>
       </c>
@@ -4803,7 +4734,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>328</v>
       </c>
@@ -4811,7 +4742,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>329</v>
       </c>
@@ -4819,7 +4750,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="345">
+    <row r="8" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>392</v>
       </c>
@@ -4827,7 +4758,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165">
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
         <v>335</v>
@@ -4843,7 +4774,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>337</v>
       </c>
@@ -4857,12 +4788,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -4874,8 +4805,8 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="75">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4891,8 +4822,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="38"/>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4903,8 +4834,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="B15" s="38"/>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4915,8 +4846,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="38"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4924,8 +4855,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="45">
-      <c r="B17" s="38"/>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4933,8 +4864,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="45">
-      <c r="B18" s="38" t="s">
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4947,14 +4878,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="38"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="45">
-      <c r="B20" s="38"/>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4965,8 +4896,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="38"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4977,8 +4908,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="45">
-      <c r="B22" s="38"/>
+    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4989,8 +4920,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="38"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -5001,8 +4932,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="45">
-      <c r="B24" s="38"/>
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="37"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -5013,8 +4944,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="45">
-      <c r="B25" s="38"/>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -5025,8 +4956,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30">
-      <c r="B26" s="38"/>
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -5037,7 +4968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45">
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>380</v>
       </c>
@@ -5048,7 +4979,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="45">
+    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>321</v>
       </c>
@@ -5056,7 +4987,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>385</v>
       </c>
@@ -5083,10 +5014,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -5096,7 +5027,7 @@
     <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5116,11 +5047,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5133,8 +5064,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90">
-      <c r="C3" s="38"/>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -5142,7 +5073,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>400</v>
       </c>
@@ -5153,7 +5084,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>403</v>
       </c>
@@ -5161,7 +5092,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>404</v>
       </c>
@@ -5169,7 +5100,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>405</v>
       </c>
@@ -5177,7 +5108,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>406</v>
       </c>
@@ -5185,7 +5116,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>407</v>
       </c>
@@ -5193,7 +5124,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>408</v>
       </c>
@@ -5201,7 +5132,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>415</v>
       </c>
@@ -5212,7 +5143,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>417</v>
       </c>
@@ -5223,7 +5154,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90">
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>421</v>
       </c>
@@ -5234,7 +5165,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>423</v>
       </c>
@@ -5245,7 +5176,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>427</v>
       </c>
@@ -5256,7 +5187,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="225">
+    <row r="16" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>432</v>
       </c>
@@ -5267,7 +5198,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="45">
+    <row r="17" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>433</v>
       </c>
@@ -5278,7 +5209,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60">
+    <row r="18" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>436</v>
       </c>
@@ -5289,7 +5220,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="131.25" customHeight="1">
+    <row r="19" spans="3:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="26" t="s">
         <v>439</v>
       </c>
@@ -5299,7 +5230,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="75">
+    <row r="21" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>441</v>
       </c>
@@ -5307,17 +5238,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="75">
-      <c r="F24" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5327,9 +5258,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" display="https://mvnrepository.com/artifact/javax.servlet/jstl/1.2"/>
+    <hyperlink ref="F22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5338,10 +5270,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
@@ -5350,7 +5282,7 @@
     <col min="6" max="6" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5370,72 +5302,72 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
         <v>391</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="D7" s="30" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>458</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="D8" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/tổng hợp.xlsx
+++ b/tổng hợp.xlsx
@@ -2532,6 +2532,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2560,10 +2563,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2573,9 +2576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2992,10 +2992,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3006,15 +3006,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3023,10 +3023,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3040,8 +3040,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3053,8 +3053,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3066,9 +3066,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3076,18 +3076,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3101,8 +3101,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3114,8 +3114,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3127,8 +3127,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3137,8 +3137,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3150,13 +3150,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3164,17 +3164,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3183,16 +3183,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3204,10 +3204,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3226,8 +3226,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3237,8 +3237,8 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3271,7 +3271,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -3307,7 +3307,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -3324,7 +3324,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -3414,10 +3414,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3425,57 +3425,57 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
       <c r="B10" s="40"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="40"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3665,12 +3665,12 @@
       <c r="E27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="38" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
         <v>131</v>
       </c>
@@ -3680,10 +3680,10 @@
       <c r="E28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="37"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
         <v>132</v>
       </c>
@@ -3693,10 +3693,10 @@
       <c r="E29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>137</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="E30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
@@ -3941,11 +3941,11 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37">
+      <c r="A48" s="38">
         <v>31</v>
       </c>
       <c r="B48" s="40"/>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="39" t="s">
         <v>190</v>
       </c>
       <c r="D48" t="s">
@@ -3956,9 +3956,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" t="s">
         <v>192</v>
       </c>
@@ -3967,9 +3967,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="38"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
@@ -3978,9 +3978,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="40"/>
-      <c r="C51" s="38"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3989,9 +3989,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="40"/>
-      <c r="C52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" t="s">
         <v>198</v>
       </c>
@@ -4000,9 +4000,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="38"/>
+      <c r="C53" s="39"/>
       <c r="D53" t="s">
         <v>200</v>
       </c>
@@ -4011,9 +4011,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="40"/>
-      <c r="C54" s="38"/>
+      <c r="C54" s="39"/>
       <c r="D54" t="s">
         <v>202</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>32</v>
       </c>
@@ -4127,7 +4127,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="10" t="s">
         <v>317</v>
       </c>
@@ -4163,22 +4163,23 @@
   <autoFilter ref="A1:F55">
     <filterColumn colId="2">
       <filters>
-        <filter val="FOREIGN KEY"/>
+        <filter val="DELEMITER"/>
+        <filter val="DELETE"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4374,84 +4375,84 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>269</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="38"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="38"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="38"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
     </row>
@@ -4491,7 +4492,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>290</v>
       </c>
       <c r="C37" t="s">
@@ -4505,7 +4506,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="22" t="s">
         <v>236</v>
       </c>
@@ -4515,12 +4516,12 @@
       <c r="E38" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="42" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="22" t="s">
         <v>284</v>
       </c>
@@ -4530,10 +4531,10 @@
       <c r="E39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" t="s">
         <v>288</v>
       </c>
@@ -4545,10 +4546,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="41" t="s">
         <v>293</v>
       </c>
       <c r="D41" t="s">
@@ -4559,8 +4560,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="41"/>
       <c r="D42" t="s">
         <v>295</v>
       </c>
@@ -4572,8 +4573,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="41"/>
       <c r="D43" t="s">
         <v>296</v>
       </c>
@@ -4585,8 +4586,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="41"/>
       <c r="D44" t="s">
         <v>297</v>
       </c>
@@ -4806,7 +4807,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4823,7 +4824,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" t="s">
         <v>347</v>
       </c>
@@ -4835,7 +4836,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" t="s">
         <v>350</v>
       </c>
@@ -4847,7 +4848,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" t="s">
         <v>354</v>
       </c>
@@ -4856,7 +4857,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" t="s">
         <v>356</v>
       </c>
@@ -4865,7 +4866,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
@@ -4879,13 +4880,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -4897,7 +4898,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -4909,7 +4910,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" t="s">
         <v>368</v>
       </c>
@@ -4921,7 +4922,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" t="s">
         <v>387</v>
       </c>
@@ -4933,7 +4934,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" t="s">
         <v>371</v>
       </c>
@@ -4945,7 +4946,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" t="s">
         <v>374</v>
       </c>
@@ -4957,7 +4958,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" t="s">
         <v>377</v>
       </c>
@@ -5013,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,7 +5052,7 @@
       <c r="B2" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5065,7 +5066,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -5242,7 +5243,7 @@
       <c r="C22" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="30" t="s">
         <v>463</v>
       </c>
     </row>
